--- a/biology/Botanique/Cochlearia_anglica/Cochlearia_anglica.xlsx
+++ b/biology/Botanique/Cochlearia_anglica/Cochlearia_anglica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cochlearia anglica, le Cranson d'Angleterre, est une espèce de plantes dicotylédones de la famille des Brassicaceae, originaire d'Europe.
 C'est une plante bisannuelle aux tiges dressées pouvant atteindre 30 cm de haut.
@@ -514,16 +526,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon Plants of the World online (POWO)                (30 novembre 2021)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (30 novembre 2021) :
 Cochlearia batava Dumort.
 Cochlearia longifolia Medik.
 Cochlearia officinalis var. anglica (L.) Kurtz
 Cochlearia ovalifolia Stokes
-Cochlearia wahlenbergii Rupr.
-Variétés
-Selon Tropicos                                           (30 novembre 2021)[3] :
-Cochlearia anglica var. integrifolia Hartm.</t>
+Cochlearia wahlenbergii Rupr.</t>
         </is>
       </c>
     </row>
@@ -548,10 +562,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 novembre 2021) :
+Cochlearia anglica var. integrifolia Hartm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cochlearia_anglica</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cochlearia_anglica</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée dans le Nord-Pas-de-Calais et en Pays de la Loire.
 </t>
